--- a/レイカディア参加申込書.xlsx
+++ b/レイカディア参加申込書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb4d241667b872f9/MyPrograms/競泳エントリーシステム/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{65CBF38F-15E5-486F-AC3F-222CEF2A56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E952814B-7D90-44CC-9F81-5A96DDF22906}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:1_{65CBF38F-15E5-486F-AC3F-222CEF2A56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B65D82-BFD1-4401-B090-304E41FBB8CD}"/>
   <bookViews>
-    <workbookView xWindow="833" yWindow="803" windowWidth="19687" windowHeight="12877" activeTab="3" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="18832" windowHeight="12818" activeTab="1" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="記入にあたって" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="リレー種目" sheetId="6" r:id="rId4"/>
     <sheet name="リレー種目記入例" sheetId="8" r:id="rId5"/>
     <sheet name="クラス" sheetId="2" state="hidden" r:id="rId6"/>
-    <sheet name="種目" sheetId="3" r:id="rId7"/>
+    <sheet name="種目" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="classTable">クラス!$B$3:$C$23</definedName>
@@ -2099,9 +2099,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2399,6 +2399,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -2416,10 +2417,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN1088"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:M4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="31.05" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -24115,9 +24116,9 @@
       <c r="P1088" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0"/>
+  <sheetProtection sheet="1" formatColumns="0"/>
   <phoneticPr fontId="1"/>
-  <dataValidations xWindow="1609" yWindow="1016" count="19">
+  <dataValidations xWindow="1609" yWindow="1016" count="23">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F251:F1048576" xr:uid="{ABDE8FF0-D403-4B8B-8518-693E7B67958D}">
       <formula1>"男,女"</formula1>
     </dataValidation>
@@ -24126,7 +24127,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O404" xr:uid="{5629255E-6FE0-42E7-81E2-661D5393FDD7}">
       <formula1>INDIRECT($J2)</formula1>
     </dataValidation>
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="yyyy/mm/dd のフォーマットで記入してください。_x000a_例) 1955/10/05 _x000a_     2003/04/01" sqref="I126:I220 G17:G220 G2:G15" xr:uid="{24487AA6-F725-4D19-968C-462DA8BE7C82}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="yyyy/mm/dd のフォーマットで記入してください。_x000a_例) 1955/10/05 _x000a_     2003/04/01" sqref="I126:I220 G154:G220" xr:uid="{24487AA6-F725-4D19-968C-462DA8BE7C82}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I99" xr:uid="{EC9AF56D-1CED-4B3D-9DDE-BCFF809B9D86}">
       <formula1>INDIRECT($H2)</formula1>
     </dataValidation>
@@ -24143,26 +24144,20 @@
     <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="B1 B192:B1048576" xr:uid="{2C523005-02E3-455A-9726-3C73D9551C2D}">
       <formula1>LENB(B:B) &lt;= 16</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="C143:C213" xr:uid="{87613B3E-E189-4897-9834-27A2E9725042}">
-      <formula1>LENB($C143)&lt;=18</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="C183:C213" xr:uid="{87613B3E-E189-4897-9834-27A2E9725042}">
+      <formula1>LENB($C183)&lt;=18</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="E3:E177" xr:uid="{B5DC5963-451E-43E1-AA11-AB76BD72AA8F}">
-      <formula1>LENB(E3)&lt;=15</formula1>
+    <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" sqref="E177" xr:uid="{B5DC5963-451E-43E1-AA11-AB76BD72AA8F}">
+      <formula1>LENB(E177)&lt;=15</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B167:B191" xr:uid="{BFAEB236-0F4F-42FF-A64F-096AA98DC7AA}">
       <formula1>LENB($B167)&lt;=16</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで15文字までです。" prompt="半角カタカナで15文字までです。_x000a_" sqref="E2" xr:uid="{C05BBFCE-C04C-468A-AF17-AE93B771209F}">
-      <formula1>LENB(E2)&lt;=15</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。半角なら16文字まで。" prompt="文字数は16バイトまでです。全角なら8文字です。半角なら16文字まで。" sqref="D127:D201" xr:uid="{89F2D70E-B35B-4B9A-A6AA-B5D35110CA1B}">
+      <formula1>LENB($D127)&lt;=16</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。半角なら16文字まで。" prompt="文字数は16バイトまでです。全角なら8文字です。半角なら16文字まで。" sqref="D2:D201" xr:uid="{89F2D70E-B35B-4B9A-A6AA-B5D35110CA1B}">
-      <formula1>LENB($D2)&lt;=16</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は16バイトまで。全角なら8文字。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B2:B166" xr:uid="{D1FF7A1B-5AC1-4E99-AF36-E24C106A7119}">
-      <formula1>LENB($B2)&lt;=16</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで16文字までです。" prompt="半角カタカナで16文字までです。" sqref="C2:C142" xr:uid="{C79EB18C-B230-4225-974A-F1F63E3349FD}">
-      <formula1>LENB($C2)&lt;=16</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は16バイトまで。全角なら8文字。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B124:B166" xr:uid="{D1FF7A1B-5AC1-4E99-AF36-E24C106A7119}">
+      <formula1>LENB($B124)&lt;=16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="入力が無効です。_x000a_プルダウンメニューから選んでください。" prompt="プルダウンメニューから選んでください。" sqref="F2:F250" xr:uid="{DFB6D42B-2CD9-4F3D-8C47-12D8752B7D25}">
       <formula1>"男,女"</formula1>
@@ -24170,6 +24165,25 @@
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="入力が無効です。" prompt="分、秒、を表す、&quot;:&quot; &quot; .&quot; などは入力せず数字だけで入力してください。_x000a_1/100秒まで記入する事!!_x000a_例)_x000a_1:23.45 ➡ 12345_x000a_   28.93 ➡   2893_x000a_&quot;:&quot; &quot; .&quot; 　は自動で入ります。" sqref="L2:L138 N2:N118" xr:uid="{8465CB46-2760-4D23-8E66-45AB86B46F3F}">
       <formula1>100</formula1>
       <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="hiragana" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は16バイトまで。全角なら8文字。" prompt="文字数は16バイトまでです。全角なら8文字です。半角で16文字までは可能ですが、漢字とひらがなには半角はありません。" sqref="B2:B123" xr:uid="{6D0440A2-4F58-4648-A88E-C9BF151121D1}">
+      <formula1>LENB($B2)&lt;=16</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで16文字までです。" prompt="半角カタカナで16文字までです。" sqref="C2:C182" xr:uid="{4B5C1C10-BC7F-4D92-A743-93ADF0880222}">
+      <formula1>AND(LENB($C2)&lt;=16, LENB($C2)=LEN($C2))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで16文字までです。" prompt="半角カタカナで15文字までです。" sqref="E114:E176" xr:uid="{576D585D-5D9A-474F-B02A-9A82A279D954}">
+      <formula1>AND(LENB($C114)&lt;=15, LENB($C114)=LEN($C114))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="hiragana" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は8文字までです。半角なら16文字まで。" prompt="文字数は16バイトまでです。全角なら8文字です。半角なら16文字まで。" sqref="D2:D126" xr:uid="{DF86C35B-B91D-47F1-ABD7-DFC788EE773B}">
+      <formula1>LENB($D2)&lt;=16</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角カタカナで16文字までです。" prompt="半角カタカナで15文字までです。" sqref="E2:E113" xr:uid="{D6C8ACBB-BCAE-4729-9E7A-256C504CD268}">
+      <formula1>AND(LENB($E2)&lt;=15, LENB($E2)=LEN($E2))</formula1>
+    </dataValidation>
+    <dataValidation type="date" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="日付が不正です。_x000a_yyyy/mm/dd_x000a_の書式で入力してください。" prompt="yyyy/mm/dd のフォーマットで記入してください。_x000a_例) 1955/10/05 _x000a_     2003/04/01" sqref="G2:G153" xr:uid="{FBDB3D49-C489-4B73-86F2-6E78F13FE8E7}">
+      <formula1>1</formula1>
+      <formula2>55153</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24207,7 +24221,7 @@
   <dimension ref="A1:AN1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.7"/>
@@ -46017,8 +46031,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I1088"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.7"/>
@@ -50666,16 +50680,22 @@
       <c r="I1088" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" deleteRows="0"/>
+  <sheetProtection sheet="1" formatColumns="0" deleteRows="0"/>
   <phoneticPr fontId="1"/>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 I101:I1048576 I1" xr:uid="{BFF472FF-6271-4ABB-A001-978AB8B10F5B}"/>
-    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31 B1:B441" xr:uid="{B84921E3-4CA7-4042-B269-8AD6E244F3DD}"/>
-    <dataValidation imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C722 E2:E31" xr:uid="{45E54F28-F5B4-4C22-A7CE-778FD1C88EC0}"/>
+    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31 B1 B289:B441" xr:uid="{B84921E3-4CA7-4042-B269-8AD6E244F3DD}"/>
+    <dataValidation imeMode="halfKatakana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31 C1 C285:C722" xr:uid="{45E54F28-F5B4-4C22-A7CE-778FD1C88EC0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="レースで出せるタイムを入力してください_x000a_分、秒、を表す、&quot;:&quot; &quot; .&quot; などは入力せず数字だけで入力してください。_x000a_例)_x000a_1:23.45 ➡ 12345_x000a_   28.93 ➡   2893_x000a_&quot;:&quot; &quot; .&quot; 　は自動で入ります。" sqref="I32:I100" xr:uid="{C9E450D6-14FB-4734-8D2F-7A0557C21A69}"/>
     <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="レースで出せるタイムを入力してください_x000a_分、秒、を表す、&quot;:&quot; &quot; .&quot; などは入力せず数字だけで入力してください。_x000a_例)_x000a_1:23.45 ➡ 12345_x000a_   28.93 ➡   2893_x000a_&quot;:&quot; &quot; .&quot; 　は自動で入ります。" sqref="I2:I31" xr:uid="{FBCCC0B8-9093-4A4C-80BF-23C7DF8490F0}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F431" xr:uid="{7FA13F90-F4C1-45ED-A366-DBDBFE835124}">
       <formula1>"男,女,混合"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="hiragana" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="文字数は15文字までです。半角なら30文字まで。" prompt="文字数は30バイトまでです。全角なら15文字です。半角なら30文字まで。" sqref="B2:B288" xr:uid="{C3C56C2E-A6A2-443F-A446-A0A0F6B03E2B}">
+      <formula1>LENB(B2)&lt;=16</formula1>
+    </dataValidation>
+    <dataValidation type="custom" imeMode="halfKatakana" showInputMessage="1" showErrorMessage="1" errorTitle="文字数制限" error="半角ｶﾀｶﾅで15文字までです｡" prompt="半角ｶﾀｶﾅで15文字までです｡" sqref="C2:C284" xr:uid="{F274FFD5-4903-4F90-A4F6-343C13F711F4}">
+      <formula1>AND(LEN(C2)&lt;=15,LEN(C2)=LENB(C2))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
